--- a/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>147938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132094</v>
+        <v>132608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163058</v>
+        <v>164384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5832262982322726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5207620246150678</v>
+        <v>0.5227886448302921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6428354499322618</v>
+        <v>0.6480611403811641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>364</v>
@@ -762,19 +762,19 @@
         <v>203055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>188647</v>
+        <v>187796</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216877</v>
+        <v>218253</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5582789872497906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5186663174254759</v>
+        <v>0.5163247527381623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5962816621422468</v>
+        <v>0.6000646235852531</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>543</v>
@@ -783,19 +783,19 @@
         <v>350993</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>327000</v>
+        <v>326396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>370821</v>
+        <v>371110</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5685289242585847</v>
+        <v>0.5685289242585848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5296657197339169</v>
+        <v>0.5286864764384148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6006452407939104</v>
+        <v>0.6011132469390796</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>90890</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76811</v>
+        <v>76005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106654</v>
+        <v>105963</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3583209467859793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3028180719795784</v>
+        <v>0.2996410760939567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4204676810577553</v>
+        <v>0.4177444442907336</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -833,19 +833,19 @@
         <v>142875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129554</v>
+        <v>127820</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>157980</v>
+        <v>157834</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3928194355229498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3561957154072503</v>
+        <v>0.3514279227078001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.434350052865388</v>
+        <v>0.4339471849056761</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -854,19 +854,19 @@
         <v>233765</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>214173</v>
+        <v>212894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>255502</v>
+        <v>257810</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3786452691488326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3469114933442464</v>
+        <v>0.3448398095177935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4138553645666506</v>
+        <v>0.4175937229704209</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4512</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>766</v>
+        <v>891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17369</v>
+        <v>17638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01778751667088496</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003018494933481243</v>
+        <v>0.003513263732382602</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06847401493931608</v>
+        <v>0.06953572777089051</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -904,19 +904,19 @@
         <v>5336</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2710</v>
+        <v>2752</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9755</v>
+        <v>9601</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01467120928573016</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007450826140577535</v>
+        <v>0.00756680965803043</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02682125981371636</v>
+        <v>0.02639749404068221</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -925,19 +925,19 @@
         <v>9848</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5318</v>
+        <v>5231</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19656</v>
+        <v>21497</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01595158593314945</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008613216325733627</v>
+        <v>0.008472954575088001</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03183787390420038</v>
+        <v>0.0348206764623899</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>10315</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5120</v>
+        <v>5789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16695</v>
+        <v>17733</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04066523831086322</v>
+        <v>0.04066523831086323</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.020186533895947</v>
+        <v>0.02282399030469369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06581875009742498</v>
+        <v>0.06990813485181537</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -975,19 +975,19 @@
         <v>12450</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7777</v>
+        <v>7580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19910</v>
+        <v>18235</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03423036794152932</v>
+        <v>0.03423036794152933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02138114959521401</v>
+        <v>0.02084179355644269</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05474179051894581</v>
+        <v>0.05013472842083939</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -996,19 +996,19 @@
         <v>22765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16061</v>
+        <v>15549</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31811</v>
+        <v>31262</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03687422065943321</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02601575412162179</v>
+        <v>0.02518632200164103</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05152690987304487</v>
+        <v>0.05063734211203511</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>410363</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>376740</v>
+        <v>375940</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>446071</v>
+        <v>447032</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4276796309723465</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.392638223918909</v>
+        <v>0.39180373032254</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4648947586167003</v>
+        <v>0.4658966467726023</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>465</v>
@@ -1121,19 +1121,19 @@
         <v>368920</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>341515</v>
+        <v>340161</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>398496</v>
+        <v>399477</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3743407193515325</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3465332687841905</v>
+        <v>0.3451587535854033</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4043510002761413</v>
+        <v>0.4053471455984619</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>835</v>
@@ -1142,19 +1142,19 @@
         <v>779283</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>735629</v>
+        <v>733792</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>826656</v>
+        <v>823014</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4006535584932693</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.378209664704844</v>
+        <v>0.3772654123837157</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4250094180015082</v>
+        <v>0.4231373856640115</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>516590</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>483618</v>
+        <v>479159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>552915</v>
+        <v>552523</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5383894840677731</v>
+        <v>0.538389484067773</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5040262925918362</v>
+        <v>0.4993793599415871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5762468825855286</v>
+        <v>0.5758390336109539</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>783</v>
@@ -1192,19 +1192,19 @@
         <v>580087</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>550918</v>
+        <v>545368</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>608542</v>
+        <v>608125</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5886110697120259</v>
+        <v>0.5886110697120258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5590130438442698</v>
+        <v>0.553381428955585</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6174834011475204</v>
+        <v>0.6170605938657002</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1218</v>
@@ -1213,19 +1213,19 @@
         <v>1096677</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1046399</v>
+        <v>1052067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1139919</v>
+        <v>1144425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5638360515434039</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.537986147198696</v>
+        <v>0.5409004325486554</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5860678650685101</v>
+        <v>0.5883845314115516</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>9331</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3774</v>
+        <v>3933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22451</v>
+        <v>23519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0097244176755824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003933284088625567</v>
+        <v>0.004099422370911528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02339809635733805</v>
+        <v>0.02451175090243052</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1263,19 +1263,19 @@
         <v>10063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4587</v>
+        <v>4519</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21920</v>
+        <v>21495</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01021066939608054</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004654417185749278</v>
+        <v>0.004585790573538924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02224196253600853</v>
+        <v>0.02181062209678661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1284,19 +1284,19 @@
         <v>19393</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11094</v>
+        <v>11083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35458</v>
+        <v>35813</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009970794548336784</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00570360473021149</v>
+        <v>0.005698338070394605</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01822997186124474</v>
+        <v>0.01841255504519156</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>23226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15215</v>
+        <v>14574</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36402</v>
+        <v>35764</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0242064672842981</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01585743165330026</v>
+        <v>0.01518924607618537</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03793771472378545</v>
+        <v>0.03727319941239375</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1334,19 +1334,19 @@
         <v>26449</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18255</v>
+        <v>17908</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39061</v>
+        <v>37531</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02683754154036115</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01852350098369806</v>
+        <v>0.0181711042893394</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0396348621142667</v>
+        <v>0.03808209136465606</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>55</v>
@@ -1355,19 +1355,19 @@
         <v>49675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>38471</v>
+        <v>37058</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65778</v>
+        <v>65214</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02553959541498996</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01977932341880711</v>
+        <v>0.0190528712042699</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03381859545836203</v>
+        <v>0.03352868946807763</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>111800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94684</v>
+        <v>92396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>133358</v>
+        <v>130493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3219967651823077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2726997119970717</v>
+        <v>0.2661111183313326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3840858920011768</v>
+        <v>0.3758353890234684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -1480,19 +1480,19 @@
         <v>84257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69139</v>
+        <v>69930</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98803</v>
+        <v>98171</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2474029172418743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2030125874033269</v>
+        <v>0.2053339192476268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2901133119364439</v>
+        <v>0.2882587384361407</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -1501,19 +1501,19 @@
         <v>196057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172359</v>
+        <v>173332</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>221939</v>
+        <v>221398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2850600889594728</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2506042212590545</v>
+        <v>0.2520190159454189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.322690970165814</v>
+        <v>0.3219050026027619</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>233123</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>212202</v>
+        <v>212982</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>250894</v>
+        <v>252407</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.671419290904524</v>
+        <v>0.6714192909045239</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6111653504657546</v>
+        <v>0.6134104890875776</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7226024229981725</v>
+        <v>0.726959720778961</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>325</v>
@@ -1551,19 +1551,19 @@
         <v>250477</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>235653</v>
+        <v>235420</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>265613</v>
+        <v>264545</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7354722087314177</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6919438218628631</v>
+        <v>0.6912621040863802</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7799170839990308</v>
+        <v>0.7767816271771895</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>534</v>
@@ -1572,19 +1572,19 @@
         <v>483600</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>457487</v>
+        <v>459376</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>508726</v>
+        <v>507255</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7031364090345487</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6651701668004362</v>
+        <v>0.6679165112148511</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7396698848306885</v>
+        <v>0.7375297260288272</v>
       </c>
     </row>
     <row r="16">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7642</v>
+        <v>8598</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006583943913168305</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02201087839509783</v>
+        <v>0.02476193125564989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1622,19 +1622,19 @@
         <v>4176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1690</v>
+        <v>1877</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8431</v>
+        <v>7968</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01226271986749886</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004960918751766504</v>
+        <v>0.005510987581566582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02475483439583542</v>
+        <v>0.02339762985870837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1643,19 +1643,19 @@
         <v>6462</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3112</v>
+        <v>2823</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13359</v>
+        <v>13348</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009395906488615911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004524637251752913</v>
+        <v>0.004104411518629118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01942349159031195</v>
+        <v>0.01940722804607273</v>
       </c>
     </row>
     <row r="17">
@@ -1685,19 +1685,19 @@
         <v>1656</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4754</v>
+        <v>4386</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00486215415920904</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001470056485335713</v>
+        <v>0.001485803170930774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01395968798489361</v>
+        <v>0.01287737711071374</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1706,19 +1706,19 @@
         <v>1656</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5087</v>
+        <v>4736</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.002407595517362595</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0007338550541810434</v>
+        <v>0.0007376386816406778</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.007395920442319743</v>
+        <v>0.006886398649356635</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>670101</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>626725</v>
+        <v>628211</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>711322</v>
+        <v>716070</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4294491925649647</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4016507119182623</v>
+        <v>0.4026028426088258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4558662555083101</v>
+        <v>0.4589093624065084</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>936</v>
@@ -1831,19 +1831,19 @@
         <v>656232</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>619886</v>
+        <v>616581</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>691249</v>
+        <v>695527</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3883486421260222</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3668396152188072</v>
+        <v>0.364883871849128</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4090712584433214</v>
+        <v>0.4116034254771215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1592</v>
@@ -1852,19 +1852,19 @@
         <v>1326333</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1267325</v>
+        <v>1262962</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1380757</v>
+        <v>1383734</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4080805802051272</v>
+        <v>0.4080805802051273</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3899251700820536</v>
+        <v>0.3885827793457408</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4248256093489045</v>
+        <v>0.425741557290762</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>840603</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>798980</v>
+        <v>796335</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>886391</v>
+        <v>885447</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5387187798317699</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.512043677105101</v>
+        <v>0.5103485315437958</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5680633428202123</v>
+        <v>0.5674585021113218</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1347</v>
@@ -1902,19 +1902,19 @@
         <v>973438</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>938869</v>
+        <v>935391</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1011526</v>
+        <v>1013672</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5760671951859954</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.55560959449559</v>
+        <v>0.5535515852881566</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5986071995147719</v>
+        <v>0.5998769101551433</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2097</v>
@@ -1923,19 +1923,19 @@
         <v>1814041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1759519</v>
+        <v>1758341</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1868932</v>
+        <v>1876193</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5581366173408866</v>
+        <v>0.5581366173408867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5413615859253079</v>
+        <v>0.5409991862214728</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5750251530656434</v>
+        <v>0.5772591608199903</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>16129</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7674</v>
+        <v>8263</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30153</v>
+        <v>32373</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01033635158827765</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004918370541929699</v>
+        <v>0.005295246465059076</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01932400798359588</v>
+        <v>0.02074673511479383</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1973,19 +1973,19 @@
         <v>19575</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12219</v>
+        <v>12368</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32303</v>
+        <v>30814</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01158433885295825</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007231193000034942</v>
+        <v>0.007319232906384746</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01911650024317579</v>
+        <v>0.01823526187821405</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -1994,19 +1994,19 @@
         <v>35704</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24537</v>
+        <v>24134</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>52280</v>
+        <v>54742</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01098519341166369</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00754935227291198</v>
+        <v>0.007425344677865326</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01608528534455538</v>
+        <v>0.01684289658713358</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>33541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23816</v>
+        <v>23865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46477</v>
+        <v>47957</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02149567601498771</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01526299118520421</v>
+        <v>0.01529428909527711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02978580344776538</v>
+        <v>0.03073441951845736</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -2044,19 +2044,19 @@
         <v>40555</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30559</v>
+        <v>31091</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54577</v>
+        <v>53804</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02399982383502432</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01808442348853818</v>
+        <v>0.01839894940472179</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03229797896821056</v>
+        <v>0.03184067692157145</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -2065,19 +2065,19 @@
         <v>74096</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59673</v>
+        <v>58915</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92384</v>
+        <v>91870</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02279760904232239</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01836008638423218</v>
+        <v>0.0181267292122698</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02842418846500234</v>
+        <v>0.02826609799261887</v>
       </c>
     </row>
     <row r="23">
